--- a/DCCsheet.xlsx
+++ b/DCCsheet.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cody_feldman\DCCchargen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77C6E9D-7473-4B20-9B23-8BF831E36FB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9F7857-1F36-4A76-A4DE-FC6C771CD63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="3000" windowWidth="20910" windowHeight="11835" activeTab="2" xr2:uid="{452236E0-FD64-4FEE-BD33-046103814BAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{452236E0-FD64-4FEE-BD33-046103814BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="equipment" sheetId="1" r:id="rId1"/>
     <sheet name="occupation" sheetId="2" r:id="rId2"/>
     <sheet name="quirks2" sheetId="5" r:id="rId3"/>
     <sheet name="signs" sheetId="6" r:id="rId4"/>
+    <sheet name="Injuries" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="418">
   <si>
     <t>Waterskin</t>
   </si>
@@ -102,9 +103,6 @@
     <t>Backpack</t>
   </si>
   <si>
-    <t>Farmer</t>
-  </si>
-  <si>
     <t>Club</t>
   </si>
   <si>
@@ -264,9 +262,6 @@
     <t>Animal Trainer</t>
   </si>
   <si>
-    <t>Pony</t>
-  </si>
-  <si>
     <t>Engraver</t>
   </si>
   <si>
@@ -600,9 +595,6 @@
     <t>Pitchfork (spear)</t>
   </si>
   <si>
-    <t>1d4(Ox, Hen, Mule, Waterbuffalo)</t>
-  </si>
-  <si>
     <t>Orphan</t>
   </si>
   <si>
@@ -1168,13 +1160,136 @@
   </si>
   <si>
     <t>Can't sheathe weapon without giving it a taste of blood</t>
+  </si>
+  <si>
+    <t>1d4(Hen, Giant Ladybug, Giant Pillbug, Waterbuffalo)</t>
+  </si>
+  <si>
+    <t>Animal Caretaker</t>
+  </si>
+  <si>
+    <t>Giant Snout Beetle</t>
+  </si>
+  <si>
+    <t>Dandy, addicted to fancy dress</t>
+  </si>
+  <si>
+    <t>Makes Jewelry from the Teeth of the Dead</t>
+  </si>
+  <si>
+    <t>Hides an unhealing wound</t>
+  </si>
+  <si>
+    <t>Hides Blasphemous Birth Mark</t>
+  </si>
+  <si>
+    <t>injuries</t>
+  </si>
+  <si>
+    <t>Severed Hand</t>
+  </si>
+  <si>
+    <t>Severed Foot</t>
+  </si>
+  <si>
+    <t>Lost Eye</t>
+  </si>
+  <si>
+    <t>Completely Ruined Face</t>
+  </si>
+  <si>
+    <t>Severed Arm (shoulder)</t>
+  </si>
+  <si>
+    <t>You'll need some help getting around, you wont be very fast either.</t>
+  </si>
+  <si>
+    <t>See Hand</t>
+  </si>
+  <si>
+    <t>See Foot</t>
+  </si>
+  <si>
+    <t>Severed Leg (knee)</t>
+  </si>
+  <si>
+    <t>Adds up</t>
+  </si>
+  <si>
+    <t>Head Injury Table</t>
+  </si>
+  <si>
+    <t>Phobia for attacker(race, gender, nationality, whatever stands out)</t>
+  </si>
+  <si>
+    <t>Memory Loss: everything before Injury</t>
+  </si>
+  <si>
+    <t>Memory Loss: One Week</t>
+  </si>
+  <si>
+    <t>Vermin, pick a type of vermin you see everywhere</t>
+  </si>
+  <si>
+    <t>You saw a glimpse of the afterlife</t>
+  </si>
+  <si>
+    <t>You think you're undead</t>
+  </si>
+  <si>
+    <t>Super Absorption!</t>
+  </si>
+  <si>
+    <t>Hallucinate a friendly creature!</t>
+  </si>
+  <si>
+    <t>Nervous tick: violent punch ( at DMs discretion)</t>
+  </si>
+  <si>
+    <t>No depth perception, or blindness! (gauged, turned white, red, black)</t>
+  </si>
+  <si>
+    <t>Low integrity</t>
+  </si>
+  <si>
+    <t>Need system of belts or metal bands or the like to stay together ( or guts fall out, spine breaks, head explodes, etc)</t>
+  </si>
+  <si>
+    <t>Signature Scar</t>
+  </si>
+  <si>
+    <t>You may hide it (lost jaw, burned, weeping eye in giant scar, unclosing wound, lost lips, rotting, paralized on one side etc.)</t>
+  </si>
+  <si>
+    <t>Enemy's weapon, foreign object, poison or magic is lodged in your torso, can disarm.</t>
+  </si>
+  <si>
+    <t>Undeveloped conjoined twin</t>
+  </si>
+  <si>
+    <t>Hallucinate a creature is always hunting you</t>
+  </si>
+  <si>
+    <t>Night terrors</t>
+  </si>
+  <si>
+    <t>No more dual wielding for you! Harder to cast spells, lift objects, affects precise skills. (may be shriveled)</t>
+  </si>
+  <si>
+    <t>All injuries: -1 STA. Likely Unique Effects:</t>
+  </si>
+  <si>
+    <t>Lose 1d4 Fingers</t>
+  </si>
+  <si>
+    <t>An X, magical mark of the face of the wizard that cast the spell, 7 stars (has to be big!) GAIN 1 STA instead!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,13 +1303,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCB120D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9933FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1235,7 +1375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1252,12 +1392,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9933FF"/>
+      <color rgb="FFCB120D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1707,7 +1864,7 @@
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,1402 +1877,1402 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="D43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="D55" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>24</v>
+        <v>378</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>190</v>
+        <v>377</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3126,380 +3283,405 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7262F0-90CE-4952-A342-60A2EE0FAAEF}">
-  <dimension ref="A1:A73"/>
+  <dimension ref="A1:A78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="88.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="39" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>379</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -3519,152 +3701,357 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>365</v>
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC56D857-4E99-4ECC-8812-39324158EC0A}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="108.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="8" max="8" width="69.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G8" s="6">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G10" s="6">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="G11" s="6">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" t="s">
+        <v>410</v>
+      </c>
+      <c r="G12" s="6">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/DCCsheet.xlsx
+++ b/DCCsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cody_feldman\DCCchargen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9F7857-1F36-4A76-A4DE-FC6C771CD63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022FE714-7AA4-4815-8D8C-49AD7B4AA93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{452236E0-FD64-4FEE-BD33-046103814BAB}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="quirks2" sheetId="5" r:id="rId3"/>
     <sheet name="signs" sheetId="6" r:id="rId4"/>
     <sheet name="Injuries" sheetId="7" r:id="rId5"/>
+    <sheet name="wands" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +29,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{D28EBC11-DE24-49F4-A71C-245344A1FCDA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This is a bit boring I'd just take 1d6 charges, recharge half
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="524">
   <si>
     <t>Waterskin</t>
   </si>
@@ -952,9 +988,6 @@
     <t>Unusually long beard</t>
   </si>
   <si>
-    <t>Hardy: Guaranteed to survive one "check the body" check</t>
-  </si>
-  <si>
     <t>Secretly rich, has 1d6+4 gold stowed away somewhere</t>
   </si>
   <si>
@@ -1283,13 +1316,334 @@
   </si>
   <si>
     <t>An X, magical mark of the face of the wizard that cast the spell, 7 stars (has to be big!) GAIN 1 STA instead!</t>
+  </si>
+  <si>
+    <t>Owes 10,000 gold to the local clan</t>
+  </si>
+  <si>
+    <t>1d4</t>
+  </si>
+  <si>
+    <t>1d6</t>
+  </si>
+  <si>
+    <t>1d8</t>
+  </si>
+  <si>
+    <t>1d10</t>
+  </si>
+  <si>
+    <t>Gems</t>
+  </si>
+  <si>
+    <t>Skull studs</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Roman Numeral</t>
+  </si>
+  <si>
+    <t>Verbal count on use</t>
+  </si>
+  <si>
+    <t>Leaves number marked on the floor in (d4 blood, ash, dust, sand)</t>
+  </si>
+  <si>
+    <t>Notches</t>
+  </si>
+  <si>
+    <t>Colored bands</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>Turn ratchet</t>
+  </si>
+  <si>
+    <t>Embed in flesh</t>
+  </si>
+  <si>
+    <t>submerge in spirits</t>
+  </si>
+  <si>
+    <t>enveloped in fire</t>
+  </si>
+  <si>
+    <t>frozen in ice</t>
+  </si>
+  <si>
+    <t>Wand shortens relative to charges</t>
+  </si>
+  <si>
+    <t>Leaves that wither and fall</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Charges Display D12</t>
+  </si>
+  <si>
+    <t>Charges recharged D4</t>
+  </si>
+  <si>
+    <t>half of spent</t>
+  </si>
+  <si>
+    <t>Fingers or limbs that shrink away</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Thick straight Rod</t>
+  </si>
+  <si>
+    <t>Very long and thin</t>
+  </si>
+  <si>
+    <t>Dragon (head/ body)</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Burnt Wood</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Finger length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classic wand </t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>Exhaustpipe</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>Chaos symbol</t>
+  </si>
+  <si>
+    <t>Dagger/ Speartip</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>Spine</t>
+  </si>
+  <si>
+    <t>Whole human arm</t>
+  </si>
+  <si>
+    <t>Staff with tip on both ends</t>
+  </si>
+  <si>
+    <t>Tip D12</t>
+  </si>
+  <si>
+    <t>Woven Hair</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Consuming material its made of</t>
+  </si>
+  <si>
+    <t>Drinks Blood (specific creature?)</t>
+  </si>
+  <si>
+    <t>Drinks Tears</t>
+  </si>
+  <si>
+    <t>When whoever holds it dies</t>
+  </si>
+  <si>
+    <t>Struck by lightning</t>
+  </si>
+  <si>
+    <t>Material D12 (can roll for tip as well)</t>
+  </si>
+  <si>
+    <t>Max Charges D6</t>
+  </si>
+  <si>
+    <t>Recharge Method D12 (don't make it easy)</t>
+  </si>
+  <si>
+    <t>Glove with small wand on indexfinger</t>
+  </si>
+  <si>
+    <t>Globe</t>
+  </si>
+  <si>
+    <t>Faux Sword</t>
+  </si>
+  <si>
+    <t>2d6 ^</t>
+  </si>
+  <si>
+    <t>2x 2d6 &gt;</t>
+  </si>
+  <si>
+    <t>alternative effects:  2d100</t>
+  </si>
+  <si>
+    <t>kneel and chant in front of wand</t>
+  </si>
+  <si>
+    <t>exposed to bright daylight</t>
+  </si>
+  <si>
+    <t>Vaguely shaped like a pistol</t>
+  </si>
+  <si>
+    <t>A long thin spike</t>
+  </si>
+  <si>
+    <t>A fully functional Lance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisting Rod </t>
+  </si>
+  <si>
+    <t>A walking cane</t>
+  </si>
+  <si>
+    <t>Y shaped with handles on the split side</t>
+  </si>
+  <si>
+    <t>Telescopic Rod</t>
+  </si>
+  <si>
+    <t>Long thin Church Tower</t>
+  </si>
+  <si>
+    <t>An open book</t>
+  </si>
+  <si>
+    <t>Tiny (between thumb and forefinger)</t>
+  </si>
+  <si>
+    <t>Flail (tips for heads, spin to cast)</t>
+  </si>
+  <si>
+    <t>Wand Base D20</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>Dwarf</t>
+  </si>
+  <si>
+    <t>Monkey</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Boar</t>
+  </si>
+  <si>
+    <t>Human/Animal (see table)</t>
+  </si>
+  <si>
+    <t>Human/ Animal (1d2 head or body)</t>
+  </si>
+  <si>
+    <t>Hand/ Claw (same table)</t>
+  </si>
+  <si>
+    <t>Frog</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Salamander</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Horse</t>
+  </si>
+  <si>
+    <t>Donkey</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Hardy: First Injury roll is a 1</t>
+  </si>
+  <si>
+    <t>Scarred all over</t>
+  </si>
+  <si>
+    <t>Owns a Beautiful Warrior's Robe. But someone of his low station can't wear it.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,8 +1664,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1333,6 +1700,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,7 +1748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1403,6 +1776,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1424,6 +1798,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>417196</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Afbeelding 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D835624-3C19-46B0-A37A-AE6896BD7F6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9686926" y="57150"/>
+          <a:ext cx="5532120" cy="7543800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3676650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2057032</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>18751</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Afbeelding 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F731768-EFC3-4A48-ADA2-CFBAE4E92BE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="3152775"/>
+          <a:ext cx="2942857" cy="2390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>199613</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Afbeelding 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A165BA70-609B-4868-BFD5-A5D91B6445A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15363825" y="0"/>
+          <a:ext cx="3295238" cy="5419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304398</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Afbeelding 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD5DEA7-206F-41CA-ADD4-E0855E5AF040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18592800" y="38100"/>
+          <a:ext cx="3219048" cy="3952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2107,7 +2662,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>27</v>
@@ -2759,13 +3314,13 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>27</v>
@@ -3283,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7262F0-90CE-4952-A342-60A2EE0FAAEF}">
-  <dimension ref="A1:A78"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3431,7 +3986,7 @@
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -3464,224 +4019,239 @@
         <v>306</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>307</v>
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="39" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="39" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="39" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -3701,152 +4271,152 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3873,15 +4443,15 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H1" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -3889,16 +4459,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3906,16 +4476,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" t="s">
         <v>406</v>
-      </c>
-      <c r="C4" t="s">
-        <v>407</v>
       </c>
       <c r="G4" s="6">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3923,16 +4493,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G5" s="6">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3940,16 +4510,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G6" s="6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3957,16 +4527,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G7" s="6">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3974,16 +4544,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G8" s="6">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3991,16 +4561,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G9" s="6">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4008,16 +4578,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G10" s="6">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4025,16 +4595,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G11" s="6">
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4042,19 +4612,795 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G12" s="6">
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE7E654-4616-47F4-B857-6ADD5AF16A09}">
+  <dimension ref="A1:S59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31" style="6" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" customWidth="1"/>
+    <col min="10" max="10" width="4" style="6" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>425</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D8" s="6">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>466</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>429</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D11" s="6">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>430</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>480</v>
+      </c>
+      <c r="D12" s="6">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>436</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" s="6">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>437</v>
+      </c>
+      <c r="G13" s="6">
+        <v>6</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>489</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>491</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>492</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>493</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>496</v>
+      </c>
+      <c r="D20" s="6">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>497</v>
+      </c>
+      <c r="D21" s="6">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D22" s="6">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D23" s="6">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>435</v>
+      </c>
+      <c r="S23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D24" s="6">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>446</v>
+      </c>
+      <c r="D25" s="6">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D26" s="6">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>510</v>
+      </c>
+      <c r="D27" s="6">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>488</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>447</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>495</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>450</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>456</v>
+      </c>
+      <c r="D32" s="6">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>457</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>452</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D34" s="6">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>459</v>
+      </c>
+      <c r="D35" s="6">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>460</v>
+      </c>
+      <c r="D36" s="6">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="D37" s="6">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="D38" s="6">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D39" s="6">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>499</v>
+      </c>
+      <c r="D40" s="6">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>500</v>
+      </c>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>